--- a/xlsx/peterhegyi  léejto.xlsx
+++ b/xlsx/peterhegyi  léejto.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Mennyezetfűtés\_projektek F\2025\06_18 angol invest péterhegyi lejtúő\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szala\Desktop\apparat-heating-planner\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Számolgatós" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>gerincvezeték</t>
   </si>
@@ -56,18 +56,9 @@
     <t>B vezeték</t>
   </si>
   <si>
-    <t>betonfödémbe integrált monolit fűtés/hűtés 16x2 csővel</t>
-  </si>
-  <si>
     <t xml:space="preserve">födémátvezető dobozok </t>
   </si>
   <si>
-    <t>FSZ</t>
-  </si>
-  <si>
-    <t>EM</t>
-  </si>
-  <si>
     <t>üveszövet vágási hulladék</t>
   </si>
   <si>
@@ -81,12 +72,84 @@
   </si>
   <si>
     <t>1 db</t>
+  </si>
+  <si>
+    <t>Kell név a tervrajznak?</t>
+  </si>
+  <si>
+    <t>Csoport elnevezés alkalmazásbeli csoportonként, vagy szabadon?</t>
+  </si>
+  <si>
+    <t>Mi megy az F és G oszlopokba?</t>
+  </si>
+  <si>
+    <t>Árak kiszámításáról</t>
+  </si>
+  <si>
+    <t>Egy csoport egy sor vagy egy panel egy sor?</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Minden második sor random színre befesteni</t>
+  </si>
+  <si>
+    <t>Excelben ugyanolyan színű a sor</t>
+  </si>
+  <si>
+    <t>Váltakozó színű téglalap a panelkák köré, random szín</t>
+  </si>
+  <si>
+    <t>Panelkákon legyen sorszám, egyezzen az Excellel</t>
+  </si>
+  <si>
+    <t>Sorszám bekarikázva</t>
+  </si>
+  <si>
+    <t>csövek rádiuszosak</t>
+  </si>
+  <si>
+    <t>Csőnyomvonal rajzolás panelonként, nem csoportonként</t>
+  </si>
+  <si>
+    <t>Minden panel fele piros másik fele kék, sorrend mindegy</t>
+  </si>
+  <si>
+    <t>A panelen lévő labelen lévő csőhossz csak az egyik, a hosszabb cső</t>
+  </si>
+  <si>
+    <t>Csőhossz az *1.1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F és G oszlop a két cső hossza, mindkét oszlopba a hosszabb kerül</t>
+  </si>
+  <si>
+    <t>Doboz szélesség 8 centi</t>
+  </si>
+  <si>
+    <t>rádiusz 15 centi</t>
+  </si>
+  <si>
+    <t>csőköz 4 centi</t>
+  </si>
+  <si>
+    <t>Cső is piros-kék</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0\ [$ m2]"/>
@@ -96,9 +159,9 @@
     <numFmt numFmtId="168" formatCode="#,##0\ [$ Ft/m2]"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="#,##0\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ [$ m]"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ [$ m]"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +264,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -240,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -447,6 +518,165 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -454,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -517,37 +747,37 @@
     <xf numFmtId="166" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,10 +792,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,10 +846,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,10 +861,10 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,10 +873,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,6 +892,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,15 +916,102 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -969,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,18 +1321,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="81"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
@@ -1024,17 +1347,15 @@
       <c r="G3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
-      <c r="B4" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="77"/>
       <c r="C4" s="36">
         <v>1</v>
       </c>
@@ -1072,9 +1393,7 @@
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52"/>
-      <c r="B5" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="77"/>
       <c r="C5" s="22">
         <v>2</v>
       </c>
@@ -1100,8 +1419,9 @@
         <v>4</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
@@ -1112,9 +1432,7 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
-      <c r="B6" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="77"/>
       <c r="C6" s="20">
         <v>3</v>
       </c>
@@ -1140,8 +1458,9 @@
         <v>4</v>
       </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
@@ -1152,9 +1471,7 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
-      <c r="B7" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="77"/>
       <c r="C7" s="24">
         <v>4</v>
       </c>
@@ -1180,7 +1497,9 @@
         <v>5</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -1192,9 +1511,7 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
-      <c r="B8" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="77"/>
       <c r="C8" s="20">
         <v>5</v>
       </c>
@@ -1220,7 +1537,9 @@
         <v>5</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -1232,9 +1551,7 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
-      <c r="B9" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="77"/>
       <c r="C9" s="26">
         <v>6</v>
       </c>
@@ -1260,7 +1577,9 @@
         <v>5</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -1272,9 +1591,7 @@
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
-      <c r="B10" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="77"/>
       <c r="C10" s="60">
         <v>7</v>
       </c>
@@ -1312,9 +1629,7 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
-      <c r="B11" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="77"/>
       <c r="C11" s="69">
         <v>8</v>
       </c>
@@ -1352,9 +1667,7 @@
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
-      <c r="B12" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="77"/>
       <c r="C12" s="20">
         <v>9</v>
       </c>
@@ -1392,9 +1705,7 @@
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
-      <c r="B13" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="77"/>
       <c r="C13" s="65">
         <v>10</v>
       </c>
@@ -1432,9 +1743,7 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
-      <c r="B14" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="77"/>
       <c r="C14" s="42">
         <v>11</v>
       </c>
@@ -1472,9 +1781,7 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="77"/>
       <c r="C15" s="36">
         <v>12</v>
       </c>
@@ -1510,9 +1817,7 @@
     </row>
     <row r="16" spans="1:21" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
-      <c r="B16" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="77"/>
       <c r="C16" s="22">
         <v>13</v>
       </c>
@@ -1539,10 +1844,8 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="82" t="s">
-        <v>9</v>
-      </c>
+    <row r="17" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="77"/>
       <c r="C17" s="20">
         <v>14</v>
       </c>
@@ -1569,10 +1872,8 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82" t="s">
-        <v>9</v>
-      </c>
+    <row r="18" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="77"/>
       <c r="C18" s="24">
         <v>15</v>
       </c>
@@ -1599,10 +1900,8 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82" t="s">
-        <v>9</v>
-      </c>
+    <row r="19" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="77"/>
       <c r="C19" s="20">
         <v>16</v>
       </c>
@@ -1629,10 +1928,8 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82" t="s">
-        <v>9</v>
-      </c>
+    <row r="20" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="77"/>
       <c r="C20" s="26">
         <v>17</v>
       </c>
@@ -1658,11 +1955,12 @@
         <v>5</v>
       </c>
       <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="77"/>
       <c r="C21" s="60">
         <v>18</v>
       </c>
@@ -1688,11 +1986,12 @@
         <v>5</v>
       </c>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="82" t="s">
-        <v>9</v>
-      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="77"/>
       <c r="C22" s="69">
         <v>19</v>
       </c>
@@ -1718,11 +2017,12 @@
         <v>5</v>
       </c>
       <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="78"/>
       <c r="C23" s="20">
         <v>20</v>
       </c>
@@ -1748,11 +2048,12 @@
         <v>3.12</v>
       </c>
       <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="78"/>
       <c r="C24" s="65">
         <v>21</v>
       </c>
@@ -1778,11 +2079,12 @@
         <v>3.7</v>
       </c>
       <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="78"/>
       <c r="C25" s="42">
         <v>22</v>
       </c>
@@ -1808,11 +2110,12 @@
         <v>3.7</v>
       </c>
       <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="78"/>
       <c r="C26" s="36">
         <v>23</v>
       </c>
@@ -1838,11 +2141,12 @@
         <v>3.7</v>
       </c>
       <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="78"/>
       <c r="C27" s="22">
         <v>24</v>
       </c>
@@ -1868,11 +2172,12 @@
         <v>1.92</v>
       </c>
       <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="78"/>
       <c r="C28" s="20">
         <v>25</v>
       </c>
@@ -1898,11 +2203,12 @@
         <v>1.92</v>
       </c>
       <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="78"/>
       <c r="C29" s="24">
         <v>26</v>
       </c>
@@ -1928,11 +2234,12 @@
         <v>3.44</v>
       </c>
       <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="78"/>
       <c r="C30" s="20">
         <v>27</v>
       </c>
@@ -1958,101 +2265,110 @@
         <v>3.44</v>
       </c>
       <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="26">
+      <c r="N30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="94"/>
+      <c r="C31" s="95">
         <v>28</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="96">
         <v>0.8</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="97">
         <v>4.8</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="98">
         <v>6</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="99">
         <v>6</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="100">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="59">
+      <c r="I31" s="101"/>
+      <c r="J31" s="102">
         <f t="shared" si="4"/>
         <v>3.84</v>
       </c>
       <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="60">
+      <c r="N31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105">
         <v>29</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="106">
         <v>0.8</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="107">
         <v>4.8</v>
       </c>
-      <c r="F32" s="63">
-        <v>5</v>
-      </c>
-      <c r="G32" s="64">
-        <v>5</v>
-      </c>
-      <c r="H32" s="54">
+      <c r="F32" s="108">
+        <v>5</v>
+      </c>
+      <c r="G32" s="109">
+        <v>5</v>
+      </c>
+      <c r="H32" s="110">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="55">
+      <c r="I32" s="111"/>
+      <c r="J32" s="112">
         <f t="shared" si="4"/>
         <v>3.84</v>
       </c>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="69">
+      <c r="K32" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="85"/>
+      <c r="C33" s="86">
         <v>30</v>
       </c>
-      <c r="D33" s="70">
+      <c r="D33" s="87">
         <v>1</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="88">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="89">
         <v>3</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="90">
         <v>3</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="91">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="56">
+      <c r="I33" s="92"/>
+      <c r="J33" s="93">
         <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="78"/>
       <c r="C34" s="20">
         <v>31</v>
       </c>
@@ -2078,11 +2394,12 @@
         <v>4.8</v>
       </c>
       <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
-        <v>10</v>
-      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="78"/>
       <c r="C35" s="65">
         <v>32</v>
       </c>
@@ -2109,10 +2426,8 @@
       </c>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="83" t="s">
-        <v>10</v>
-      </c>
+    <row r="36" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="78"/>
       <c r="C36" s="42">
         <v>33</v>
       </c>
@@ -2139,10 +2454,8 @@
       </c>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="83" t="s">
-        <v>10</v>
-      </c>
+    <row r="37" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="78"/>
       <c r="C37" s="36">
         <v>34</v>
       </c>
@@ -2169,10 +2482,8 @@
       </c>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="2:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="83" t="s">
-        <v>10</v>
-      </c>
+    <row r="38" spans="2:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="78"/>
       <c r="C38" s="22">
         <v>35</v>
       </c>
@@ -2199,10 +2510,8 @@
       </c>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="2:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="83" t="s">
-        <v>10</v>
-      </c>
+    <row r="39" spans="2:17" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="78"/>
       <c r="C39" s="20">
         <v>36</v>
       </c>
@@ -2229,10 +2538,11 @@
       </c>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K40" s="6"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H43" s="7">
         <f>SUM(H4:H36)</f>
         <v>343.5</v>
@@ -2241,16 +2551,27 @@
         <f>SUM(J4:J36)</f>
         <v>121.10000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="114"/>
+      <c r="N43" s="115"/>
+      <c r="O43" s="115"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="120" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H44" s="4">
         <v>215</v>
       </c>
       <c r="J44" s="5">
         <v>8800</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M44" s="117"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="118"/>
+      <c r="P44" s="119"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H45" s="8">
         <f>H43*H44</f>
         <v>73852.5</v>
@@ -2260,16 +2581,24 @@
         <f>J43*J44</f>
         <v>1065680</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M45" s="117"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="118"/>
+      <c r="P45" s="119"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J46" s="2">
         <v>8800</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M46" s="117"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="119"/>
+    </row>
+    <row r="47" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="9"/>
@@ -2277,10 +2606,17 @@
         <f>H45+J45</f>
         <v>1139532.5</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M47" s="117"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="75">
         <v>36</v>
@@ -2292,13 +2628,17 @@
         <f>H48*I48</f>
         <v>32040</v>
       </c>
+      <c r="M48" s="120"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="122"/>
     </row>
     <row r="49" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="84" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="I49" s="79" t="s">
+        <v>12</v>
       </c>
       <c r="J49" s="2">
         <v>38000</v>
@@ -2311,7 +2651,7 @@
     <row r="51" spans="8:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H51" s="16"/>
       <c r="I51" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J51" s="13">
         <f>SUM(J47:J49)</f>
@@ -2320,7 +2660,7 @@
     </row>
     <row r="53" spans="8:10" x14ac:dyDescent="0.25">
       <c r="I53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2330,6 +2670,6 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>